--- a/model/data/polynomial_regression.xlsx
+++ b/model/data/polynomial_regression.xlsx
@@ -399,222 +399,222 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.379999999999994</v>
+        <v>2.431874999999952</v>
       </c>
       <c r="B2">
-        <v>10.54999999999995</v>
+        <v>10.57437499999976</v>
       </c>
       <c r="C2">
-        <v>3.939999999999959</v>
+        <v>3.931250000000003</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.54000000000001</v>
+        <v>2.488124999999961</v>
       </c>
       <c r="B3">
-        <v>12.42999999999988</v>
+        <v>12.40562499999966</v>
       </c>
       <c r="C3">
-        <v>5.079999999999966</v>
+        <v>5.088750000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.069999999999961</v>
+        <v>3.018124999999941</v>
       </c>
       <c r="B4">
-        <v>9.760000000000089</v>
+        <v>9.735624999998873</v>
       </c>
       <c r="C4">
-        <v>5.119999999999987</v>
+        <v>5.128749999999983</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2.404403414254194</v>
+        <v>2.841874999999977</v>
       </c>
       <c r="B5">
-        <v>17.01492384174324</v>
+        <v>13.16437499999942</v>
       </c>
       <c r="C5">
-        <v>3.407724000689601</v>
+        <v>6.391249999999979</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2.029999999999998</v>
+        <v>1.97812499999997</v>
       </c>
       <c r="B6">
-        <v>10.26999999999993</v>
+        <v>10.24562499999989</v>
       </c>
       <c r="C6">
-        <v>3.049999999999976</v>
+        <v>3.058749999999947</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.800367878724821</v>
+        <v>2.031874999999985</v>
       </c>
       <c r="B7">
-        <v>4.851632231022597</v>
+        <v>9.284374999999937</v>
       </c>
       <c r="C7">
-        <v>6.429665783082132</v>
+        <v>3.581250000000005</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.889999999999983</v>
+        <v>1.941874999999968</v>
       </c>
       <c r="B8">
-        <v>9.370000000000074</v>
+        <v>9.394374999999553</v>
       </c>
       <c r="C8">
-        <v>4.789999999999981</v>
+        <v>4.781250000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.989999999999988</v>
+        <v>1.938124999999971</v>
       </c>
       <c r="B9">
-        <v>9.42000000000005</v>
+        <v>9.395625000000148</v>
       </c>
       <c r="C9">
-        <v>5.369999999999987</v>
+        <v>5.378750000000104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.809999999999995</v>
+        <v>1.758124999999993</v>
       </c>
       <c r="B10">
-        <v>9.169999999999957</v>
+        <v>9.145624999999807</v>
       </c>
       <c r="C10">
-        <v>3.329999999999973</v>
+        <v>3.338750000000013</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.659999999999989</v>
+        <v>1.711874999999999</v>
       </c>
       <c r="B11">
-        <v>11.20999999999989</v>
+        <v>11.23437500000004</v>
       </c>
       <c r="C11">
-        <v>3.179999999999982</v>
+        <v>3.171250000000037</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3.990978567325801</v>
+        <v>3.281874999999964</v>
       </c>
       <c r="B12">
-        <v>3.385398187547649</v>
+        <v>9.504374999998998</v>
       </c>
       <c r="C12">
-        <v>9.984948254798493</v>
+        <v>7.301250000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2.719999999999978</v>
+        <v>2.668125000000039</v>
       </c>
       <c r="B13">
-        <v>12.79000000000005</v>
+        <v>12.76562499999987</v>
       </c>
       <c r="C13">
-        <v>5.769999999999978</v>
+        <v>5.778750000000067</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2.070038727773294</v>
+        <v>2.141874999999992</v>
       </c>
       <c r="B14">
-        <v>13.08273289413155</v>
+        <v>8.104374999999816</v>
       </c>
       <c r="C14">
-        <v>-0.00601370827206793</v>
+        <v>2.591249999999982</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.425788588078163</v>
+        <v>2.02812499999996</v>
       </c>
       <c r="B15">
-        <v>7.724687154444977</v>
+        <v>9.715625000000141</v>
       </c>
       <c r="C15">
-        <v>2.136324330298248</v>
+        <v>2.088750000000055</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>3.659999999999986</v>
+        <v>3.608124999999994</v>
       </c>
       <c r="B16">
-        <v>8.48000000000013</v>
+        <v>8.455624999999298</v>
       </c>
       <c r="C16">
-        <v>6.059999999999985</v>
+        <v>6.068749999999917</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3.049999999999969</v>
+        <v>3.101875000000042</v>
       </c>
       <c r="B17">
-        <v>10.58000000000005</v>
+        <v>10.60437500000016</v>
       </c>
       <c r="C17">
-        <v>4.18999999999998</v>
+        <v>4.181250000000063</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2.719999999999995</v>
+        <v>2.71999999999997</v>
       </c>
       <c r="B18">
-        <v>8.819999999999977</v>
+        <v>8.819999999999521</v>
       </c>
       <c r="C18">
-        <v>4.440000000000001</v>
+        <v>4.43999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2.129999999999981</v>
+        <v>2.130000000000003</v>
       </c>
       <c r="B19">
-        <v>11.39999999999996</v>
+        <v>11.40000000000007</v>
       </c>
       <c r="C19">
-        <v>5.299999999999965</v>
+        <v>5.300000000000055</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.960000000000001</v>
+        <v>1.959999999999972</v>
       </c>
       <c r="B20">
-        <v>8.399999999999897</v>
+        <v>8.399999999999931</v>
       </c>
       <c r="C20">
-        <v>2.349999999999966</v>
+        <v>2.349999999999985</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3.199999999999967</v>
+        <v>3.199999999999953</v>
       </c>
       <c r="B21">
-        <v>9.340000000000229</v>
+        <v>9.339999999999105</v>
       </c>
       <c r="C21">
-        <v>5.759999999999987</v>
+        <v>5.760000000000013</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -622,120 +622,120 @@
         <v>2.309999999999988</v>
       </c>
       <c r="B22">
-        <v>13.95</v>
+        <v>13.9499999999996</v>
       </c>
       <c r="C22">
-        <v>4.879999999999963</v>
+        <v>4.880000000000025</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2.099999999999994</v>
+        <v>2.099999999999987</v>
       </c>
       <c r="B23">
-        <v>9.329999999999982</v>
+        <v>9.330000000000137</v>
       </c>
       <c r="C23">
-        <v>3.239999999999977</v>
+        <v>3.240000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.934297460204164</v>
+        <v>1.959999999999926</v>
       </c>
       <c r="B24">
-        <v>11.975396605403</v>
+        <v>10.39999999999962</v>
       </c>
       <c r="C24">
-        <v>4.742671967107302</v>
+        <v>4.339999999999958</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2.069999999999993</v>
+        <v>2.070000000000014</v>
       </c>
       <c r="B25">
-        <v>9.870000000000031</v>
+        <v>9.869999999999816</v>
       </c>
       <c r="C25">
-        <v>3.430000000000003</v>
+        <v>3.430000000000057</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2.018333333333331</v>
+        <v>2.005714285714276</v>
       </c>
       <c r="B26">
-        <v>11.00333333333333</v>
+        <v>11.05999999999981</v>
       </c>
       <c r="C26">
-        <v>3.963333333333328</v>
+        <v>3.960000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2.018333333333331</v>
+        <v>2.005714285714276</v>
       </c>
       <c r="B27">
-        <v>11.00333333333333</v>
+        <v>11.05999999999981</v>
       </c>
       <c r="C27">
-        <v>3.963333333333328</v>
+        <v>3.960000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2.018333333333331</v>
+        <v>2.005714285714276</v>
       </c>
       <c r="B28">
-        <v>11.00333333333333</v>
+        <v>11.05999999999981</v>
       </c>
       <c r="C28">
-        <v>3.963333333333328</v>
+        <v>3.960000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2.018333333333331</v>
+        <v>2.005714285714276</v>
       </c>
       <c r="B29">
-        <v>11.00333333333333</v>
+        <v>11.05999999999981</v>
       </c>
       <c r="C29">
-        <v>3.963333333333328</v>
+        <v>3.960000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2.018333333333334</v>
+        <v>2.005714285714291</v>
       </c>
       <c r="B30">
-        <v>11.00333333333334</v>
+        <v>11.05999999999981</v>
       </c>
       <c r="C30">
-        <v>3.96333333333332</v>
+        <v>3.960000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2.018333333333334</v>
+        <v>2.005714285714291</v>
       </c>
       <c r="B31">
-        <v>11.00333333333334</v>
+        <v>11.05999999999981</v>
       </c>
       <c r="C31">
-        <v>3.96333333333332</v>
+        <v>3.960000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2.018333333333334</v>
+        <v>2.005714285714291</v>
       </c>
       <c r="B32">
-        <v>11.00333333333334</v>
+        <v>11.05999999999981</v>
       </c>
       <c r="C32">
-        <v>3.96333333333332</v>
+        <v>3.960000000000002</v>
       </c>
     </row>
   </sheetData>
